--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_26.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_26.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_0</t>
+          <t>model_1_26_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9902067905710853</v>
+        <v>0.9265542700291123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7305640275739249</v>
+        <v>0.7416008270066889</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7118494868997705</v>
+        <v>0.6967678835463944</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9970417180961285</v>
+        <v>0.8181962161388383</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04110000498497376</v>
+        <v>0.3082360169911175</v>
       </c>
       <c r="G2" t="n">
-        <v>1.80171958825174</v>
+        <v>1.727916459625059</v>
       </c>
       <c r="H2" t="n">
-        <v>1.030697677432794</v>
+        <v>1.084643698146213</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02219694665607379</v>
+        <v>0.445537306066969</v>
       </c>
       <c r="J2" t="n">
-        <v>0.41496514681375</v>
+        <v>1.641745406438884</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2027313616216637</v>
+        <v>0.5551900728499362</v>
       </c>
       <c r="L2" t="n">
-        <v>1.005732610397414</v>
+        <v>0.748186068671242</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2113620553976707</v>
+        <v>0.5788256636530454</v>
       </c>
       <c r="N2" t="n">
-        <v>136.3834940723821</v>
+        <v>36.35377900105165</v>
       </c>
       <c r="O2" t="n">
-        <v>215.6104226888152</v>
+        <v>57.07466802381106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_1</t>
+          <t>model_1_26_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9903230707275904</v>
+        <v>0.9265912718403442</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7303687665046033</v>
+        <v>0.7413182172709769</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7118618234595466</v>
+        <v>0.6954645320869739</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9968805432295956</v>
+        <v>0.8199794877931963</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04061200204306781</v>
+        <v>0.3080807283048981</v>
       </c>
       <c r="G3" t="n">
-        <v>1.803025299921389</v>
+        <v>1.729806272229063</v>
       </c>
       <c r="H3" t="n">
-        <v>1.030653550273789</v>
+        <v>1.089305710743901</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02340629384845933</v>
+        <v>0.4411671327295702</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4113269754518785</v>
+        <v>1.642759085586984</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2015241971651737</v>
+        <v>0.5550502034094738</v>
       </c>
       <c r="L3" t="n">
-        <v>1.005664543964337</v>
+        <v>0.7483129320240371</v>
       </c>
       <c r="M3" t="n">
-        <v>0.210103499451093</v>
+        <v>0.5786798396809328</v>
       </c>
       <c r="N3" t="n">
-        <v>136.4073832784723</v>
+        <v>36.35478685093203</v>
       </c>
       <c r="O3" t="n">
-        <v>215.6343118949054</v>
+        <v>57.07567587369144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_2</t>
+          <t>model_1_26_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9904346572728301</v>
+        <v>0.9266283481703954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7301731630369168</v>
+        <v>0.7410520151390096</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7118697657176845</v>
+        <v>0.6942437143502787</v>
       </c>
       <c r="E4" t="n">
-        <v>0.996715965155715</v>
+        <v>0.8216683124262275</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04014369718357344</v>
+        <v>0.307925126879136</v>
       </c>
       <c r="G4" t="n">
-        <v>1.804333301210479</v>
+        <v>1.731586367111276</v>
       </c>
       <c r="H4" t="n">
-        <v>1.030625141276949</v>
+        <v>1.09367250500098</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02464117640711809</v>
+        <v>0.4370284159138912</v>
       </c>
       <c r="J4" t="n">
-        <v>0.407714786619124</v>
+        <v>1.64376027309954</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2003589208984053</v>
+        <v>0.5549100169208843</v>
       </c>
       <c r="L4" t="n">
-        <v>1.005599225011026</v>
+        <v>0.7484400508699272</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2088886149611939</v>
+        <v>0.5785336851632981</v>
       </c>
       <c r="N4" t="n">
-        <v>136.4305796652829</v>
+        <v>36.35579724021818</v>
       </c>
       <c r="O4" t="n">
-        <v>215.657508281716</v>
+        <v>57.07668626297759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_3</t>
+          <t>model_1_26_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9905416319940591</v>
+        <v>0.9266650938732007</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7299773231624784</v>
+        <v>0.7408001155711781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7118733653729103</v>
+        <v>0.6930921735294131</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9965480007266131</v>
+        <v>0.8232754351295878</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0396947471628788</v>
+        <v>0.3077709130251959</v>
       </c>
       <c r="G5" t="n">
-        <v>1.805642883352608</v>
+        <v>1.733270820681257</v>
       </c>
       <c r="H5" t="n">
-        <v>1.030612265518926</v>
+        <v>1.097791499747043</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02590146788509205</v>
+        <v>0.4330899218706595</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4041256123358203</v>
+        <v>1.644761845414727</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1992354063987594</v>
+        <v>0.5547710455901569</v>
       </c>
       <c r="L5" t="n">
-        <v>1.005536605662014</v>
+        <v>0.7485660361366882</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2077172701233024</v>
+        <v>0.5783887975353114</v>
       </c>
       <c r="N5" t="n">
-        <v>136.4530728266415</v>
+        <v>36.35679912327196</v>
       </c>
       <c r="O5" t="n">
-        <v>215.6800014430746</v>
+        <v>57.07768814603137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_4</t>
+          <t>model_1_26_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9906441625514176</v>
+        <v>0.9267012216906826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7297813117044357</v>
+        <v>0.7405607204870199</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7118728721673681</v>
+        <v>0.6919991877902603</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9963768610144371</v>
+        <v>0.8248117964225939</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03926444834724134</v>
+        <v>0.3076192923037786</v>
       </c>
       <c r="G6" t="n">
-        <v>1.806953612875089</v>
+        <v>1.734871656711335</v>
       </c>
       <c r="H6" t="n">
-        <v>1.030614029686553</v>
+        <v>1.101701046361038</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02718558453974039</v>
+        <v>0.4293248392244463</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4005592870892751</v>
+        <v>1.645772639947015</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1981525885453969</v>
+        <v>0.5546343771384701</v>
       </c>
       <c r="L6" t="n">
-        <v>1.00547658777478</v>
+        <v>0.7486899029394831</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2065883544721803</v>
+        <v>0.5782463108246936</v>
       </c>
       <c r="N6" t="n">
-        <v>136.4748715834642</v>
+        <v>36.35778464902894</v>
       </c>
       <c r="O6" t="n">
-        <v>215.7018001998973</v>
+        <v>57.07867367178834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_5</t>
+          <t>model_1_26_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9907423365288827</v>
+        <v>0.9267365537971066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7295851780962579</v>
+        <v>0.7403323119768042</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7118683769271412</v>
+        <v>0.6909558026676114</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9962026643132047</v>
+        <v>0.8262866372547915</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0388524331654467</v>
+        <v>0.3074710110114506</v>
       </c>
       <c r="G7" t="n">
-        <v>1.808265159216087</v>
+        <v>1.736399025470873</v>
       </c>
       <c r="H7" t="n">
-        <v>1.030630108900195</v>
+        <v>1.105433174445808</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0284926387727597</v>
+        <v>0.4257105216492045</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3970211177316038</v>
+        <v>1.646795695275311</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1971102056349358</v>
+        <v>0.5545006862136878</v>
       </c>
       <c r="L7" t="n">
-        <v>1.005419120080654</v>
+        <v>0.7488110415900799</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2055015951631908</v>
+        <v>0.5781069284004648</v>
       </c>
       <c r="N7" t="n">
-        <v>136.4959691487768</v>
+        <v>36.3587489386261</v>
       </c>
       <c r="O7" t="n">
-        <v>215.7228977652099</v>
+        <v>57.07963796138551</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_6</t>
+          <t>model_1_26_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9908362117910364</v>
+        <v>0.9267709088647463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7293888909709675</v>
+        <v>0.7401135846948135</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7118599572333313</v>
+        <v>0.6899551808310482</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9960254490529908</v>
+        <v>0.8277073439325685</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03845845877222164</v>
+        <v>0.3073268301418902</v>
       </c>
       <c r="G8" t="n">
-        <v>1.809577732126723</v>
+        <v>1.737861655812691</v>
       </c>
       <c r="H8" t="n">
-        <v>1.030660225656752</v>
+        <v>1.109012340735807</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02982234223085887</v>
+        <v>0.4222288678987441</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3935038994413166</v>
+        <v>1.647836105153194</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1961082832830415</v>
+        <v>0.5543706613285827</v>
       </c>
       <c r="L8" t="n">
-        <v>1.005364168707686</v>
+        <v>0.7489288303934161</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2044570189025111</v>
+        <v>0.5779713680868124</v>
       </c>
       <c r="N8" t="n">
-        <v>136.5163532262993</v>
+        <v>36.35968700875291</v>
       </c>
       <c r="O8" t="n">
-        <v>215.7432818427323</v>
+        <v>57.08057603151232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_7</t>
+          <t>model_1_26_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9909259586096169</v>
+        <v>0.926804240044568</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7291925586682868</v>
+        <v>0.7399034441549156</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7118477173536812</v>
+        <v>0.6889911366831587</v>
       </c>
       <c r="E9" t="n">
-        <v>0.995845388652315</v>
+        <v>0.8290807961421884</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03808181057350617</v>
+        <v>0.3071869463104692</v>
       </c>
       <c r="G9" t="n">
-        <v>1.810890607138775</v>
+        <v>1.739266866570596</v>
       </c>
       <c r="H9" t="n">
-        <v>1.030704006996551</v>
+        <v>1.112460670754316</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03117339369875387</v>
+        <v>0.4188630182751019</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3900127607442091</v>
+        <v>1.648895273572292</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1951456137695802</v>
+        <v>0.5542444824357471</v>
       </c>
       <c r="L9" t="n">
-        <v>1.005311633984614</v>
+        <v>0.7490431087242331</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2034533665548612</v>
+        <v>0.5778398174972823</v>
       </c>
       <c r="N9" t="n">
-        <v>136.5360370472322</v>
+        <v>36.36059754218078</v>
       </c>
       <c r="O9" t="n">
-        <v>215.7629656636653</v>
+        <v>57.08148656494019</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_8</t>
+          <t>model_1_26_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9910116371060231</v>
+        <v>0.9268363554342289</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7289961729860274</v>
+        <v>0.7397008814769495</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7118321010507689</v>
+        <v>0.6880584611240604</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9956625656365018</v>
+        <v>0.830412223435866</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03772223625265039</v>
+        <v>0.3070521648902674</v>
       </c>
       <c r="G10" t="n">
-        <v>1.812203839100317</v>
+        <v>1.740621404130871</v>
       </c>
       <c r="H10" t="n">
-        <v>1.030759865606583</v>
+        <v>1.115796797149574</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03254517396222252</v>
+        <v>0.4156001569800801</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3865442874225005</v>
+        <v>1.650060060110098</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1942221312123065</v>
+        <v>0.5541228788727889</v>
       </c>
       <c r="L10" t="n">
-        <v>1.005261480718425</v>
+        <v>0.7491532186316421</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2024905694332519</v>
+        <v>0.5777130370188949</v>
       </c>
       <c r="N10" t="n">
-        <v>136.555011074758</v>
+        <v>36.36147525524013</v>
       </c>
       <c r="O10" t="n">
-        <v>215.7819396911911</v>
+        <v>57.08236427799954</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_9</t>
+          <t>model_1_26_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9910933486766516</v>
+        <v>0.9268673244037766</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7287997695724046</v>
+        <v>0.7395051441001128</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7118125824076887</v>
+        <v>0.6871530213709994</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9954770939966059</v>
+        <v>0.831706602206723</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03737931027066901</v>
+        <v>0.3069221947500362</v>
       </c>
       <c r="G11" t="n">
-        <v>1.813517189631568</v>
+        <v>1.741930300871065</v>
       </c>
       <c r="H11" t="n">
-        <v>1.030829682661125</v>
+        <v>1.11903550264586</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0339368277094857</v>
+        <v>0.41242808861962</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3831035431811748</v>
+        <v>1.6513177591013</v>
       </c>
       <c r="K11" t="n">
-        <v>0.193337296636394</v>
+        <v>0.5540055909014242</v>
       </c>
       <c r="L11" t="n">
-        <v>1.005213649555131</v>
+        <v>0.7492593979558055</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2015680656175828</v>
+        <v>0.5775907558557697</v>
       </c>
       <c r="N11" t="n">
-        <v>136.5732758579059</v>
+        <v>36.3623220016238</v>
       </c>
       <c r="O11" t="n">
-        <v>215.800204474339</v>
+        <v>57.0832110243832</v>
       </c>
     </row>
   </sheetData>
